--- a/loaded_influencer_data/ugcwithvaleriia/ugcwithvaleriia_video.xlsx
+++ b/loaded_influencer_data/ugcwithvaleriia/ugcwithvaleriia_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,19 +506,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7347626872513072417</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C2" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>25.42372881355932</v>
+        <v>23.66197183098592</v>
       </c>
       <c r="I2" t="n">
-        <v>22.31638418079096</v>
+        <v>22.3943661971831</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.107344632768362</v>
+        <v>1.267605633802817</v>
       </c>
       <c r="L2" t="n">
-        <v>1.553672316384181</v>
+        <v>1.549295774647887</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -560,69 +560,70 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7486451990369750294</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7488676418855931158</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>906</v>
+        <v>761</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>This Mother’s Day, my mom and I are so excited to create high-quality, engaging mother-daughter content that brings warmth, authenticity, and creativity to any niche! Whether it’s lifestyle, beauty, fashion, wellness, or heartfelt storytelling, we love producing content that truly connects with audiences.</t>
+          <t>Ein ganz besonderer Moment für mich! ✨
+Meine Kooperation mit Galeria für das Bags, Shoes &amp; More Event in Köln war eine der größten und bedeutendsten, die ich bisher umsetzen durfte – und das Beste daran? Ich durfte es gemeinsam mit meiner Mama erleben!</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.317880794701987</v>
+        <v>1.576872536136662</v>
       </c>
       <c r="I3" t="n">
-        <v>1.986754966887417</v>
+        <v>1.576872536136662</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3311258278145696</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2207505518763797</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7483558537176550678</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7487955608210099478</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -632,157 +633,260 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Just when she was about to give up, life had bigger plans for her. ✨
+The universe works in mysterious ways—sometimes, the breakthrough comes right when you’re at your lowest. Keep showing up, keep believing, and trust that everything is aligning in your favor. Your hard work, resilience, and patience will always pay off at the right time. What’s meant for you will never miss you! ❤️</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>46.93877551020408</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26.53061224489796</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.40816326530612</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.040816326530612</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7486451990369750294</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>915</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>This Mother’s Day, my mom and I are so excited to create high-quality, engaging mother-daughter content that brings warmth, authenticity, and creativity to any niche! Whether it’s lifestyle, beauty, fashion, wellness, or heartfelt storytelling, we love producing content that truly connects with audiences.</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>2.01765447667087</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.639344262295082</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3783102143757882</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.1261034047919294</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="H5" t="n">
+        <v>2.622950819672131</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.295081967213115</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2185792349726776</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7483558537176550678</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>795</v>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Another day - another UGC Example🫶🏻
+Brands,
+if you are looking for catchy, high-quality content, let's connect.</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.264150943396226</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.886792452830189</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.3773584905660378</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1257861635220126</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7483182030436535554</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>401</v>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="B7" t="n">
+        <v>404</v>
+      </c>
+      <c r="C7" t="n">
+        <v>28</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Forever beauty and fashion UGC Creator.
 Nramds, if you are looking for catchy, engaging and high-quality content, let's connect.</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>7.98004987531172</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.483790523690773</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.496259351620948</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.997506234413965</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H7" t="n">
+        <v>8.663366336633663</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.930693069306932</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.732673267326733</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9900990099009901</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7482430023471877398</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>408</v>
-      </c>
-      <c r="C6" t="n">
-        <v>34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B8" t="n">
+        <v>411</v>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>To spice it up your content, just experiment and you will be amazed what you can do.
 For more tips, let's connect.</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>10.04901960784314</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8.333333333333332</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.715686274509804</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="H8" t="n">
+        <v>10.94890510948905</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.759124087591241</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.18978102189781</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9732360097323601</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7480893492500204822</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1077</v>
-      </c>
-      <c r="C7" t="n">
-        <v>34</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B9" t="n">
+        <v>1081</v>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>5</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>It's all about editing☀️🫶🏻
 Save for later and follow for more @ugcwithvaleriia
@@ -790,260 +894,259 @@
 #capcuttutorial</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>3.806870937790158</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.156917363045496</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.6499535747446611</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.4642525533890436</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="H9" t="n">
+        <v>3.977798334875116</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.237742830712303</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.7400555041628123</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4625346901017576</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7480177805469273366</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>307</v>
-      </c>
-      <c r="C8" t="n">
-        <v>34</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>It's all about editing☀️🫶🏻
-Save for later and follow for more @ugcwithvaleriia
-#editingtutorial
-#capcuttutorial</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>13.35504885993485</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11.07491856677524</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.280130293159609</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.628664495114007</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7479911909697883414</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>367</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B10" t="n">
+        <v>308</v>
+      </c>
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>12</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Portfolio Example. Organic UGC Video for @Hejorganic
 For me is very important quality and sharp details
 Brands, if you are looking for a high-quality content, let's connect.</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
+        <v>9.090909090909092</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.194805194805195</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.896103896103896</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7479911909697883414</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>367</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Portfolio Example. Organic UGC Video for @Hejorganic
+For me is very important quality and sharp details
+Brands, if you are looking for a high-quality content, let's connect.</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7.629427792915531</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I11" t="n">
         <v>4.35967302452316</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.26975476839237</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L11" t="n">
         <v>0.544959128065395</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/photo/7478763944094469398</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>345</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>60</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>14</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Sundays are for self-care and as a content creator it's so important to reset🦋💌✨
 Who agrees?</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H12" t="n">
         <v>21.44927536231884</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I12" t="n">
         <v>17.39130434782609</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>4.057971014492753</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L12" t="n">
         <v>0.5797101449275363</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7477975818807807254</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B13" t="n">
         <v>360</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C13" t="n">
         <v>27</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>7</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Let me introduce myself 🫶🏻
 Hi, I'm Valeria and I'm a full-time UGC Creator and Social Media Manager.
 And here is a mini portfolio for you to get to know me. Stay tuned for the video examples☀️☄️</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H13" t="n">
         <v>8.611111111111111</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I13" t="n">
         <v>7.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L13" t="n">
         <v>1.944444444444444</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7477889386252635415</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B14" t="n">
         <v>361</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C14" t="n">
         <v>39</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>7</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>UGC Photography by me.
 Hey Brands,
@@ -1051,156 +1154,156 @@
 💌 ugcwithvaleriia@gmail.com</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>12.74238227146814</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>10.80332409972299</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.939058171745152</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>1.385041551246537</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7477528591559904534</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>634</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>29</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>8</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>A UGC Example for jewelry brand☀️
 Brands, if you are looking for high-quality, engaging content, let's connect.
 💌 ugcwithvaleriia@gmail.com</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>5.83596214511041</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I15" t="n">
         <v>4.574132492113565</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.261829652996845</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>0.3154574132492113</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/photo/7477205266623188246</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
         <v>1370</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C16" t="n">
         <v>153</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D16" t="n">
         <v>36</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>A UGC Example for jewelry brand☀️
 Brands, if you are looking for high-quality, engaging content, let's connect.
 💌 ugcwithvaleriia@gmail.com</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>13.7956204379562</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>11.16788321167883</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.627737226277372</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>0.145985401459854</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7477188437213318422</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B17" t="n">
         <v>319</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C17" t="n">
         <v>127</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>7</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>I love Sundays reset✨🫶🏻🦋
 #ugccreator
@@ -1210,52 +1313,52 @@
 #contentcreatordeutschland</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>42.94670846394985</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I17" t="n">
         <v>39.81191222570533</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.134796238244514</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L17" t="n">
         <v>2.19435736677116</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7476882432290065686</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B18" t="n">
         <v>2218</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C18" t="n">
         <v>47</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D18" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Parfüm für jeden Tag🦋☄️💕
 1. Poppy&amp;Barley @Jo Malone London
@@ -1263,52 +1366,52 @@
 3. Coco Chanel Mademoiselle</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>2.344454463480613</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>2.119026149684401</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.2254283137962128</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L18" t="n">
         <v>0.2254283137962128</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7476468763324337430</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B19" t="n">
         <v>873</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>189</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D19" t="n">
         <v>16</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>14</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Becoming her
 Building business
@@ -1316,52 +1419,52 @@
 If it's your vibe, let's glow up together✨💐💕</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H19" t="n">
         <v>23.48224513172967</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I19" t="n">
         <v>21.64948453608248</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.832760595647194</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L19" t="n">
         <v>1.603665521191294</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7476054266247925014</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B20" t="n">
         <v>950</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C20" t="n">
         <v>88</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>What every girls needs🫶🏻💇🏼‍♀️💕
 @Diego Fossa
@@ -1371,52 +1474,52 @@
 #ugccreator2025</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>9.789473684210526</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I20" t="n">
         <v>9.263157894736842</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.5263157894736842</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L20" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7475835002542968086</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B21" t="n">
         <v>453</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C21" t="n">
         <v>42</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D21" t="n">
         <v>4</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>What every girls needs🫶🏻💇🏼‍♀️💕
 @Diego Fossa
@@ -1426,204 +1529,204 @@
 #ugccreator2025</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>10.15452538631347</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I21" t="n">
         <v>9.271523178807946</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.8830022075055187</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L21" t="n">
         <v>1.103752759381899</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7475752395662822678</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B22" t="n">
         <v>900</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>60</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>26</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>2</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Just say hi💕🫶🏻
 #contentcreatorgirlies #contentcreator #ugc2025 #ugccreatorjourney #contentcreatortiktok</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>9.555555555555555</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I22" t="n">
         <v>6.666666666666667</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.888888888888889</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L22" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/photo/7475399542544895254</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>1066</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>76</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>7</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>My story wasn't easy and there is much growth ahead, but honesty u hope that this video will motivate the girls who are on the beginning on their journey, and will show that it takes time, and patience, which is super hard for me, faith and work itself, but it is so worth it.</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H23" t="n">
         <v>8.348968105065666</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I23" t="n">
         <v>7.129455909943714</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.219512195121951</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L23" t="n">
         <v>0.6566604127579738</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7474927407330381078</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B24" t="n">
         <v>872</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C24" t="n">
         <v>24</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Hi, I am Valeria, 29, Ukrainian girlie, who is building her social media business in Germany.
 Welcome to my page and let's get to know each other🫶🏻</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H24" t="n">
         <v>2.981651376146789</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I24" t="n">
         <v>2.752293577981652</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.2293577981651376</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L24" t="n">
         <v>0.4587155963302753</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7471315218379869462</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B25" t="n">
         <v>302</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C25" t="n">
         <v>19</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D25" t="n">
         <v>5</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>2</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Make-up &amp; fun is what we love 🦋✨
 #beautycreator
@@ -1632,52 +1735,52 @@
 #funmakeuplooks</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H25" t="n">
         <v>7.947019867549669</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I25" t="n">
         <v>6.291390728476822</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1.655629139072848</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L25" t="n">
         <v>0.6622516556291391</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7470478237735456022</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>347</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C26" t="n">
         <v>24</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Just my favorite kind of make-up which takes 5 minutes💋💄
 #makeup
@@ -1685,52 +1788,52 @@
 #5minutemakeup</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H26" t="n">
         <v>8.357348703170029</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I26" t="n">
         <v>6.9164265129683</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.440922190201729</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L26" t="n">
         <v>0.2881844380403458</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7469707968985042198</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B27" t="n">
         <v>342</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C27" t="n">
         <v>64</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D27" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>3</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Guilty 💕🌸💐🎀
 But happy to be a girl.
@@ -1741,103 +1844,103 @@
 #ugc2025</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H27" t="n">
         <v>20.17543859649123</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>18.71345029239766</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.461988304093567</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L27" t="n">
         <v>0.8771929824561403</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-12</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7467573534492085526</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B28" t="n">
         <v>955</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C28" t="n">
         <v>25</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D28" t="n">
         <v>6</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Düsseldorf vlog🪐🫶🏻
 #ugccreator #ugccreator2025 #ugceurope #ugcgerman #vlogstyle</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H28" t="n">
         <v>3.246073298429319</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I28" t="n">
         <v>2.617801047120419</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.6282722513089005</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L28" t="n">
         <v>0.3141361256544503</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7464886500384115990</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B29" t="n">
         <v>117</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C29" t="n">
         <v>45</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D29" t="n">
         <v>12</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>What I do for a living:
 1. Putting the egg in the shoe and hitting with a hammer
@@ -1845,103 +1948,103 @@
 3. Walking over the plank with nails</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H29" t="n">
         <v>48.71794871794872</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I29" t="n">
         <v>38.46153846153847</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>10.25641025641026</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L29" t="n">
         <v>3.418803418803419</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7461297302641134870</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B30" t="n">
         <v>440</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C30" t="n">
         <v>24</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D30" t="n">
         <v>10</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>3</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Love my mornings in these beautiful sets from @berlookofficial
 #morningroutine #ugccreator #ugceurope #yogasets</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H30" t="n">
         <v>7.727272727272727</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I30" t="n">
         <v>5.454545454545454</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.272727272727273</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L30" t="n">
         <v>0.6818181818181818</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7460469615907327254</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B31" t="n">
         <v>324</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C31" t="n">
         <v>84</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Perfect vibe for Saturday night ✨
 #ugccreatorlife
@@ -1951,103 +2054,103 @@
 #trending</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H31" t="n">
         <v>27.16049382716049</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I31" t="n">
         <v>25.92592592592592</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.234567901234568</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L31" t="n">
         <v>1.234567901234568</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-19</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7460176970878438678</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B32" t="n">
         <v>326</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C32" t="n">
         <v>16</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D32" t="n">
         <v>3</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>My name is Valeria, and I'm a German-based UGC Creator.
 My story of finding what I love is full of ups and downs, and one day I'll share it fully, but now I'm here to share with you with my real unfiltered version of this business, to talk about struggles that I had and still have, about mistakes, confusing things that I still can't explain, legal stuff, and so on.</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H32" t="n">
         <v>5.828220858895705</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I32" t="n">
         <v>4.907975460122699</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.9202453987730062</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L32" t="n">
         <v>0.9202453987730062</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/photo/7459712626264722710</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B33" t="n">
         <v>435</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C33" t="n">
         <v>26</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D33" t="n">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Just a small reminder on everyone:
 "never forget who you are."
@@ -2055,257 +2158,257 @@
 #ugccreator2025</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H33" t="n">
         <v>6.896551724137931</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I33" t="n">
         <v>5.977011494252873</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.9195402298850575</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L33" t="n">
         <v>0.6896551724137931</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7459432482404863254</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B34" t="n">
         <v>775</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C34" t="n">
         <v>60</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>What are your goals, girls?
 I have started UGC actively around 9 months ago, and it was lots of learning, mistakes, success, mental breakdown and so on, but it gave such a beautiful feeling of knowing what I love to do.</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H34" t="n">
         <v>8.645161290322582</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I34" t="n">
         <v>7.741935483870968</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.903225806451613</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L34" t="n">
         <v>0.5161290322580645</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7458973970184899862</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B35" t="n">
         <v>457</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C35" t="n">
         <v>56</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D35" t="n">
         <v>11</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Unpack with me @rhode skin
 #unpacking #rhode #rhodeskin #ugccreator #ugccontentcreator #ugcineurope</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H35" t="n">
         <v>14.66083150984683</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I35" t="n">
         <v>12.25382932166302</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>2.407002188183808</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L35" t="n">
         <v>0.87527352297593</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7454136061296446742</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B36" t="n">
         <v>801</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C36" t="n">
         <v>56</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D36" t="n">
         <v>19</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>2025, lots of UGC talks, tips how to start in Europe, examples, and reality✨
 Follow me to be a part of it.
 If you are a brand looking for a all-niche UGC Creator, contact me:</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H36" t="n">
         <v>9.363295880149813</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>6.991260923845194</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.372034956304619</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L36" t="n">
         <v>0.1248439450686642</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-12</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7453136391568968982</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>324</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>35</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>12</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>This year, I took a chance and it was the year where I risk it all and start chasimg my dreams.
 It was a start of my UGC journey. So many dream brands, so much growth, so many lessons learnt, burn outs, happiness, faith, crushing, changing perspectives.</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H37" t="n">
         <v>14.50617283950617</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I37" t="n">
         <v>10.80246913580247</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.703703703703703</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L37" t="n">
         <v>0.308641975308642</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7450554676769983766</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B38" t="n">
         <v>397</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C38" t="n">
         <v>46</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>3</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Unready with me✨🙈
 Best time of the day ✨
@@ -2315,360 +2418,360 @@
 #ugccreatoreurope</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H38" t="n">
         <v>12.8463476070529</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I38" t="n">
         <v>11.58690176322418</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.259445843828715</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L38" t="n">
         <v>0.7556675062972292</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2024-12-28</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7449426759071599895</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B39" t="n">
         <v>5408</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>17</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D39" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Weihnachten und Silvester stehen vor der Tür - und du hast noch kein Outfit?
 Kein Stress, ich habe da was für dich</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H39" t="n">
         <v>0.4068047337278107</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I39" t="n">
         <v>0.3143491124260355</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.09245562130177515</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2024-12-21</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7448645332658867478</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B40" t="n">
         <v>1022</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C40" t="n">
         <v>257</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D40" t="n">
         <v>31</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>7</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Just a girl🎄🎁
 #teamworktrend #ugccreator #girlssupportgirls #teamworkisadreamwork</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H40" t="n">
         <v>28.18003913894325</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I40" t="n">
         <v>25.146771037182</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>3.033268101761252</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L40" t="n">
         <v>0.684931506849315</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7447533742979222786</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B41" t="n">
         <v>862</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C41" t="n">
         <v>70</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Just a girl🎄🎁
 #teamworktrend #ugccreator #girlssupportgirls #teamworkisadreamwork</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H41" t="n">
         <v>8.700696055684455</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I41" t="n">
         <v>8.120649651972158</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.580046403712297</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L41" t="n">
         <v>0.3480278422273781</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-15</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7446777365444726038</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B42" t="n">
         <v>1049</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C42" t="n">
         <v>135</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D42" t="n">
         <v>26</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>7</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Let's help each other grow✨
 #fyp #teamworktrend #creatorsunder10k #10k #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H42" t="n">
         <v>15.34795042897998</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I42" t="n">
         <v>12.86939942802669</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.478551000953289</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L42" t="n">
         <v>0.667302192564347</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-12</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7444895694894157078</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B43" t="n">
         <v>1049</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C43" t="n">
         <v>83</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D43" t="n">
         <v>8</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>6</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>It exists🎅🏻✨🎄
 So soft and beautiful @nakdfashion
 #fashioinspo #winteroutfits #wintersweater</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>8.674928503336512</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>7.912297426120114</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.7626310772163966</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L43" t="n">
         <v>0.5719733079122974</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7443891220742540566</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B44" t="n">
         <v>436</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C44" t="n">
         <v>22</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D44" t="n">
         <v>7</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Another UGC Example in Health nivhe for German market😮‍💨
 @jshealthvitamins.uk
 Look at this reaults😍</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H44" t="n">
         <v>6.651376146788992</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I44" t="n">
         <v>5.045871559633028</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.605504587155963</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L44" t="n">
         <v>0.4587155963302753</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-5</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7442621254906940694</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
         <v>407</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C45" t="n">
         <v>46</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D45" t="n">
         <v>6</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>I couldn't resist and I wanted to post this crazy result😮‍💨🥹
 #ugcexample
@@ -2676,52 +2779,52 @@
 #heatlesscurls</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H45" t="n">
         <v>12.77641277641278</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I45" t="n">
         <v>11.3022113022113</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>1.474201474201474</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L45" t="n">
         <v>0.7371007371007371</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-3</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7442289467332791574</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B46" t="n">
         <v>167100</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C46" t="n">
         <v>56</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D46" t="n">
         <v>14</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>6</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>November so far🫶🏻
 #ugccreayor
@@ -2732,255 +2835,255 @@
 #novemberdump</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H46" t="n">
         <v>0.04189108318372232</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I46" t="n">
         <v>0.03351286654697786</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.008378216636744465</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L46" t="n">
         <v>0.003590664272890484</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-11-29</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7442289321354202390</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B47" t="n">
         <v>110200</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C47" t="n">
         <v>453</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D47" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>63</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>📚Prüfungsstress? Mit @Studydrive hab ich endlich alles im Griff! Kostenlose Unterlagen, hilfreiche Notizen von anderen Studierenden und genau das, was ich für den Durchblick brauche. Probier’s aus – es lohnt sich! 🚀</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H47" t="n">
         <v>0.411978221415608</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I47" t="n">
         <v>0.411070780399274</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.0009074410163339384</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L47" t="n">
         <v>0.05716878402903811</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7439660062550838561</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B48" t="n">
         <v>458</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C48" t="n">
         <v>252</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D48" t="n">
         <v>3</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>20</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Honestly, I don’t know how I’d survive exams without @Studydrive ! Free study materials, notes from classmates, and everything I need to stay on top. If you’re stressing, this is your sign to check it out. 🚀</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H48" t="n">
         <v>55.67685589519651</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I48" t="n">
         <v>55.02183406113537</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.6550218340611353</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L48" t="n">
         <v>4.366812227074235</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-11-28</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7436741299291589920</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B49" t="n">
         <v>483</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C49" t="n">
         <v>27</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D49" t="n">
         <v>6</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>4</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>UGC Ecample in German. Really loved this set. Sunkissed without a sun☀️😅
 #ugcexample
 #ugccreatordeutsch</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H49" t="n">
         <v>6.832298136645963</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I49" t="n">
         <v>5.590062111801243</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.24223602484472</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L49" t="n">
         <v>0.8281573498964804</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-11-21</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7436387085067504928</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B50" t="n">
         <v>724</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C50" t="n">
         <v>62</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D50" t="n">
         <v>12</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>GRWM with Juicy Bomb @essence cosmetics edition💋🧃
 I will obsess all over again about this crazy Juicy Bomb Lipstick</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H50" t="n">
         <v>10.22099447513812</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I50" t="n">
         <v>8.563535911602211</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>1.657458563535912</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L50" t="n">
         <v>0.4143646408839779</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-11-13</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcwithvaleriia/video/7436027648352029984</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
         <v>466</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C51" t="n">
         <v>68</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D51" t="n">
         <v>14</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Fall outfit inspo:
 @soera.official bag
@@ -2989,81 +3092,27 @@
 #contentcreator #ugccreator #fashiongirlie</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="H51" t="n">
         <v>17.59656652360515</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I51" t="n">
         <v>14.59227467811159</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>3.004291845493562</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L51" t="n">
         <v>0.2145922746781116</v>
       </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-11-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcwithvaleriia/video/7434902753748471072</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>566</v>
-      </c>
-      <c r="C50" t="n">
-        <v>36</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Fall outfit inspo:
-@soera.official bag
-@vertvie_fashion
-@UGG®
-#contentcreator #ugccreator #fashiongirlie</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7.06713780918728</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.36042402826855</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.7067137809187279</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.353356890459364</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-11-11</t>
         </is>
       </c>
     </row>
